--- a/biology/Mycologie/Lycoperdon/Lycoperdon.xlsx
+++ b/biology/Mycologie/Lycoperdon/Lycoperdon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Lycoperdon est un genre de champignons basidiomycètes de la famille des Agaricaceae (ou des Lycoperdaceae selon les classifications), qui comprend l'essentiel de ce qui est communément appelé vesse-de-loup[1]. Le nom du genre a été construit, en étymologie inverse, sur le terme vesse-de-loup en accolant les racines grecques λύκος (loup), et πέρδομαι (péter).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lycoperdon est un genre de champignons basidiomycètes de la famille des Agaricaceae (ou des Lycoperdaceae selon les classifications), qui comprend l'essentiel de ce qui est communément appelé vesse-de-loup. Le nom du genre a été construit, en étymologie inverse, sur le terme vesse-de-loup en accolant les racines grecques λύκος (loup), et πέρδομαι (péter).
 Quelques espèces européennes :   
 Lycoperdon echinatum - Vesse-de-loup hérisson
 Lycoperdon perlatum - Vesse-de-loup perlée
@@ -515,7 +527,9 @@
           <t>Liste des espèces du genre Lycoperdon[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lycoperdon albinum
